--- a/orders/orders.xlsx
+++ b/orders/orders.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -495,6 +495,27 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>22</v>
+      </c>
+      <c r="B4" t="n">
+        <v>975903540</v>
+      </c>
+      <c r="C4" t="n">
+        <v>134780</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2025-03-03 22:05:25</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/orders/orders.xlsx
+++ b/orders/orders.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -516,6 +516,27 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>975903540</v>
+      </c>
+      <c r="C5" t="n">
+        <v>465</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>yoo</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2025-03-03 22:47:34</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
